--- a/2022/Realme/February/09.02.2022/realme Bank Statement January-2022.xlsx
+++ b/2022/Realme/February/09.02.2022/realme Bank Statement January-2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="FEB-2022" sheetId="7" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="99">
   <si>
     <t>Date</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>Date: 09.02.2022</t>
+  </si>
+  <si>
+    <t>10.02.2022</t>
   </si>
 </sst>
 </file>
@@ -1699,7 +1702,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="302">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2413,57 +2416,57 @@
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="38" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="35" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="35" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="38" fillId="35" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="35" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="38" fillId="35" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2576,6 +2579,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="41" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="40" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3109,8 +3115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3339,14 +3345,14 @@
         <v>91</v>
       </c>
       <c r="C13" s="19">
-        <v>270000</v>
+        <v>170000</v>
       </c>
       <c r="D13" s="19">
         <v>0</v>
       </c>
       <c r="E13" s="21">
         <f t="shared" si="0"/>
-        <v>344575</v>
+        <v>244575</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -3367,10 +3373,15 @@
       </c>
       <c r="E14" s="21">
         <f t="shared" si="0"/>
-        <v>237175</v>
-      </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="7"/>
+        <v>137175</v>
+      </c>
+      <c r="F14" s="1">
+        <v>132737</v>
+      </c>
+      <c r="G14" s="302">
+        <f>E14-F14</f>
+        <v>4438</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="15"/>
       <c r="J14" s="15"/>
@@ -3388,7 +3399,7 @@
       </c>
       <c r="E15" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>837175</v>
       </c>
       <c r="F15" s="14"/>
       <c r="G15" s="1"/>
@@ -3398,12 +3409,18 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="15"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
+      <c r="B16" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="19">
+        <v>45000</v>
+      </c>
+      <c r="D16" s="19">
+        <v>0</v>
+      </c>
       <c r="E16" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>882175</v>
       </c>
       <c r="F16" s="8"/>
       <c r="G16" s="1"/>
@@ -3413,12 +3430,18 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="15"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
+      <c r="B17" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="19">
+        <v>270000</v>
+      </c>
+      <c r="D17" s="19">
+        <v>0</v>
+      </c>
       <c r="E17" s="21">
         <f>E16+C17-D17</f>
-        <v>937175</v>
+        <v>1152175</v>
       </c>
       <c r="F17" s="8"/>
       <c r="G17" s="1"/>
@@ -3428,12 +3451,18 @@
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1">
       <c r="A18" s="15"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
+      <c r="B18" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="19">
+        <v>100000</v>
+      </c>
+      <c r="D18" s="19">
+        <v>1237750</v>
+      </c>
       <c r="E18" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="23"/>
@@ -3448,7 +3477,7 @@
       <c r="D19" s="19"/>
       <c r="E19" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -3463,7 +3492,7 @@
       <c r="D20" s="19"/>
       <c r="E20" s="21">
         <f>E19+C20-D20</f>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="1"/>
@@ -3478,7 +3507,7 @@
       <c r="D21" s="19"/>
       <c r="E21" s="21">
         <f>E20+C21-D21</f>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -3493,7 +3522,7 @@
       <c r="D22" s="19"/>
       <c r="E22" s="21">
         <f>E21+C22-D22</f>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -3508,7 +3537,7 @@
       <c r="D23" s="19"/>
       <c r="E23" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -3523,7 +3552,7 @@
       <c r="D24" s="19"/>
       <c r="E24" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -3538,7 +3567,7 @@
       <c r="D25" s="19"/>
       <c r="E25" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -3553,7 +3582,7 @@
       <c r="D26" s="19"/>
       <c r="E26" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3568,7 +3597,7 @@
       <c r="D27" s="19"/>
       <c r="E27" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -3583,7 +3612,7 @@
       <c r="D28" s="19"/>
       <c r="E28" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -3598,7 +3627,7 @@
       <c r="D29" s="19"/>
       <c r="E29" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -3613,7 +3642,7 @@
       <c r="D30" s="19"/>
       <c r="E30" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -3628,7 +3657,7 @@
       <c r="D31" s="19"/>
       <c r="E31" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -3643,7 +3672,7 @@
       <c r="D32" s="22"/>
       <c r="E32" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -3658,7 +3687,7 @@
       <c r="D33" s="19"/>
       <c r="E33" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -3673,7 +3702,7 @@
       <c r="D34" s="19"/>
       <c r="E34" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -3688,7 +3717,7 @@
       <c r="D35" s="19"/>
       <c r="E35" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -3703,7 +3732,7 @@
       <c r="D36" s="19"/>
       <c r="E36" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -3718,7 +3747,7 @@
       <c r="D37" s="19"/>
       <c r="E37" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -3733,7 +3762,7 @@
       <c r="D38" s="19"/>
       <c r="E38" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -3748,7 +3777,7 @@
       <c r="D39" s="19"/>
       <c r="E39" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -3763,7 +3792,7 @@
       <c r="D40" s="19"/>
       <c r="E40" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="15"/>
@@ -3778,7 +3807,7 @@
       <c r="D41" s="19"/>
       <c r="E41" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="15"/>
@@ -3793,7 +3822,7 @@
       <c r="D42" s="19"/>
       <c r="E42" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="15"/>
@@ -3805,7 +3834,7 @@
       <c r="D43" s="19"/>
       <c r="E43" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="15"/>
@@ -3817,7 +3846,7 @@
       <c r="D44" s="19"/>
       <c r="E44" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="15"/>
@@ -3829,7 +3858,7 @@
       <c r="D45" s="19"/>
       <c r="E45" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="15"/>
@@ -3841,7 +3870,7 @@
       <c r="D46" s="19"/>
       <c r="E46" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="15"/>
@@ -3853,7 +3882,7 @@
       <c r="D47" s="19"/>
       <c r="E47" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="15"/>
@@ -3864,7 +3893,7 @@
       <c r="D48" s="19"/>
       <c r="E48" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="15"/>
@@ -3875,7 +3904,7 @@
       <c r="D49" s="19"/>
       <c r="E49" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="15"/>
@@ -3886,7 +3915,7 @@
       <c r="D50" s="19"/>
       <c r="E50" s="21">
         <f t="shared" si="0"/>
-        <v>937175</v>
+        <v>14425</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="15"/>
@@ -3895,11 +3924,11 @@
       <c r="B51" s="25"/>
       <c r="C51" s="21">
         <f>SUM(C5:C50)</f>
-        <v>5719425</v>
+        <v>6034425</v>
       </c>
       <c r="D51" s="21">
         <f>SUM(D5:D50)</f>
-        <v>4782250</v>
+        <v>6020000</v>
       </c>
       <c r="E51" s="21"/>
       <c r="F51" s="1"/>
@@ -3953,67 +3982,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="247" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-      <c r="I1" s="251"/>
-      <c r="J1" s="251"/>
-      <c r="K1" s="251"/>
-      <c r="L1" s="251"/>
-      <c r="M1" s="251"/>
-      <c r="N1" s="251"/>
-      <c r="O1" s="251"/>
-      <c r="P1" s="251"/>
-      <c r="Q1" s="251"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
+      <c r="M1" s="247"/>
+      <c r="N1" s="247"/>
+      <c r="O1" s="247"/>
+      <c r="P1" s="247"/>
+      <c r="Q1" s="247"/>
     </row>
     <row r="2" spans="1:24" s="102" customFormat="1" ht="18">
-      <c r="A2" s="252" t="s">
+      <c r="A2" s="248" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="252"/>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-      <c r="M2" s="252"/>
-      <c r="N2" s="252"/>
-      <c r="O2" s="252"/>
-      <c r="P2" s="252"/>
-      <c r="Q2" s="252"/>
+      <c r="B2" s="248"/>
+      <c r="C2" s="248"/>
+      <c r="D2" s="248"/>
+      <c r="E2" s="248"/>
+      <c r="F2" s="248"/>
+      <c r="G2" s="248"/>
+      <c r="H2" s="248"/>
+      <c r="I2" s="248"/>
+      <c r="J2" s="248"/>
+      <c r="K2" s="248"/>
+      <c r="L2" s="248"/>
+      <c r="M2" s="248"/>
+      <c r="N2" s="248"/>
+      <c r="O2" s="248"/>
+      <c r="P2" s="248"/>
+      <c r="Q2" s="248"/>
     </row>
     <row r="3" spans="1:24" s="103" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="253" t="s">
+      <c r="A3" s="249" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="254"/>
-      <c r="C3" s="254"/>
-      <c r="D3" s="254"/>
-      <c r="E3" s="254"/>
-      <c r="F3" s="254"/>
-      <c r="G3" s="254"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="254"/>
-      <c r="K3" s="254"/>
-      <c r="L3" s="254"/>
-      <c r="M3" s="254"/>
-      <c r="N3" s="254"/>
-      <c r="O3" s="254"/>
-      <c r="P3" s="254"/>
-      <c r="Q3" s="255"/>
+      <c r="B3" s="250"/>
+      <c r="C3" s="250"/>
+      <c r="D3" s="250"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="250"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="250"/>
+      <c r="K3" s="250"/>
+      <c r="L3" s="250"/>
+      <c r="M3" s="250"/>
+      <c r="N3" s="250"/>
+      <c r="O3" s="250"/>
+      <c r="P3" s="250"/>
+      <c r="Q3" s="251"/>
       <c r="S3" s="48"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
@@ -4022,50 +4051,50 @@
       <c r="X3" s="11"/>
     </row>
     <row r="4" spans="1:24" s="105" customFormat="1">
-      <c r="A4" s="256" t="s">
+      <c r="A4" s="252" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="258" t="s">
+      <c r="B4" s="254" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="247" t="s">
+      <c r="C4" s="256" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="247" t="s">
+      <c r="D4" s="256" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="247" t="s">
+      <c r="E4" s="256" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="247" t="s">
+      <c r="F4" s="256" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="247" t="s">
+      <c r="G4" s="256" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="247" t="s">
+      <c r="H4" s="256" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="247" t="s">
+      <c r="I4" s="256" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="247" t="s">
+      <c r="J4" s="256" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="247" t="s">
+      <c r="K4" s="256" t="s">
         <v>71</v>
       </c>
-      <c r="L4" s="247" t="s">
+      <c r="L4" s="256" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="247" t="s">
+      <c r="M4" s="256" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="249"/>
-      <c r="O4" s="262" t="s">
+      <c r="N4" s="262"/>
+      <c r="O4" s="260" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="260" t="s">
+      <c r="P4" s="258" t="s">
         <v>35</v>
       </c>
       <c r="Q4" s="104" t="s">
@@ -4078,22 +4107,22 @@
       <c r="W4" s="107"/>
     </row>
     <row r="5" spans="1:24" s="105" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="257"/>
-      <c r="B5" s="259"/>
-      <c r="C5" s="248"/>
-      <c r="D5" s="248"/>
-      <c r="E5" s="248"/>
-      <c r="F5" s="248"/>
-      <c r="G5" s="248"/>
-      <c r="H5" s="248"/>
-      <c r="I5" s="248"/>
-      <c r="J5" s="248"/>
-      <c r="K5" s="248"/>
-      <c r="L5" s="248"/>
-      <c r="M5" s="248"/>
-      <c r="N5" s="250"/>
-      <c r="O5" s="263"/>
-      <c r="P5" s="261"/>
+      <c r="A5" s="253"/>
+      <c r="B5" s="255"/>
+      <c r="C5" s="257"/>
+      <c r="D5" s="257"/>
+      <c r="E5" s="257"/>
+      <c r="F5" s="257"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="257"/>
+      <c r="I5" s="257"/>
+      <c r="J5" s="257"/>
+      <c r="K5" s="257"/>
+      <c r="L5" s="257"/>
+      <c r="M5" s="257"/>
+      <c r="N5" s="263"/>
+      <c r="O5" s="261"/>
+      <c r="P5" s="259"/>
       <c r="Q5" s="109" t="s">
         <v>36</v>
       </c>
@@ -7047,9 +7076,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -7066,6 +7092,9 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7076,8 +7105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI226"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView topLeftCell="A35" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -15831,8 +15860,8 @@
   </sheetPr>
   <dimension ref="A1:AC223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
